--- a/仕様/進行状況.xlsx
+++ b/仕様/進行状況.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="エネミー状況" sheetId="1" r:id="rId1"/>
+    <sheet name="アイテム状況" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,244 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狐</t>
+    <rPh sb="0" eb="1">
+      <t>キツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬりかべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骸骨</t>
+    <rPh sb="0" eb="2">
+      <t>ガイコツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一反木綿</t>
+    <rPh sb="0" eb="4">
+      <t>イッタンモメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <rPh sb="0" eb="1">
+      <t>オニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天狗(小)</t>
+    <rPh sb="0" eb="2">
+      <t>テング</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <rPh sb="0" eb="2">
+      <t>テング</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がしゃどくろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいだらぼっち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <rPh sb="0" eb="2">
+      <t>キュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人面樹</t>
+    <rPh sb="0" eb="2">
+      <t>ジンメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛鬼</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化け物(空)</t>
+    <rPh sb="0" eb="1">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化け物(地)</t>
+    <rPh sb="0" eb="1">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュラハン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つ目</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提灯</t>
+    <rPh sb="0" eb="2">
+      <t>チョウチン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の玉</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐傘</t>
+    <rPh sb="0" eb="2">
+      <t>カラカサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河童</t>
+    <rPh sb="0" eb="2">
+      <t>カッパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,14 +280,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7A01"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,8 +314,40 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:G22" totalsRowShown="0">
+  <autoFilter ref="A1:G22"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Model" dataDxfId="1"/>
+    <tableColumn id="4" name="Motion" dataDxfId="0"/>
+    <tableColumn id="5" name="Move"/>
+    <tableColumn id="6" name="Attack"/>
+    <tableColumn id="9" name="Pop"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Model"/>
+    <tableColumn id="4" name="Texture"/>
+    <tableColumn id="5" name="Effect"/>
+    <tableColumn id="6" name="Text"/>
+    <tableColumn id="7" name="POP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +392,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +427,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +609,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="4" width="9.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/仕様/進行状況.xlsx
+++ b/仕様/進行状況.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="エネミー状況" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム状況" sheetId="2" r:id="rId2"/>
+    <sheet name="スキル状況" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +238,74 @@
   </si>
   <si>
     <t>POP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AbilityFunc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAMATO_SKILL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProgromName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NURIKABE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITTANMOMEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ONI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TENGU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GASYADOKURO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.sigPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.mqoPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.xPath</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -315,11 +384,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:G22" totalsRowShown="0">
-  <autoFilter ref="A1:G22"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:K22" totalsRowShown="0">
+  <autoFilter ref="A1:K22"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Name"/>
+    <tableColumn id="7" name="ProgromName"/>
+    <tableColumn id="8" name=".xPath"/>
+    <tableColumn id="10" name=".mqoPath"/>
+    <tableColumn id="11" name=".sigPath"/>
     <tableColumn id="3" name="Model" dataDxfId="1"/>
     <tableColumn id="4" name="Motion" dataDxfId="0"/>
     <tableColumn id="5" name="Move"/>
@@ -343,6 +416,20 @@
     <tableColumn id="7" name="POP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="AbilityFunc"/>
+    <tableColumn id="4" name="Effect"/>
+    <tableColumn id="5" name="Texture"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -609,19 +696,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="4" width="9.09765625" customWidth="1"/>
+    <col min="3" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="8" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,250 +718,283 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -888,12 +1010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -977,4 +1100,100 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>